--- a/QueriesExcel/6.xlsx
+++ b/QueriesExcel/6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\OneDrive\Documents\ARMDD\ARMDD-Projeto\QueriesExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CAC8D63-4FD9-44A3-BCE3-C49C5403AA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081AA2BC-3C01-46DA-BE0B-9E226363582B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{88BCCAD2-7BA7-4F8B-B50D-43FF86881A56}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="47" r:id="rId2"/>
+    <pivotCache cacheId="3" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -174,7 +174,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -659,11 +659,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -709,33 +709,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="_-[$£-809]* #,##0.00_-;\-[$£-809]* #,##0.00_-;_-[$£-809]* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="[$£-809]#,##0.00"/>
+      <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,7 +736,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45663.964609374998" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6044EFDE-BCEA-48A4-8A31-1CC430DB275A}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="andre conceicao" refreshedDate="45664.032761574075" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{6044EFDE-BCEA-48A4-8A31-1CC430DB275A}">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="6">
     <cacheField name="[Measures].[Total W Disc UK]" caption="Total W Disc UK" numFmtId="0" hierarchy="162" level="32767"/>
@@ -862,7 +847,7 @@
     <cacheHierarchy uniqueName="[Dim Product].[Units On Order UK]" caption="Units On Order UK" attribute="1" defaultMemberUniqueName="[Dim Product].[Units On Order UK].[All]" allUniqueName="[Dim Product].[Units On Order UK].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Product].[Units On Order USA]" caption="Units On Order USA" attribute="1" defaultMemberUniqueName="[Dim Product].[Units On Order USA].[All]" allUniqueName="[Dim Product].[Units On Order USA].[All]" dimensionUniqueName="[Dim Product]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Ship To].[Ship City]" caption="Ship City" attribute="1" defaultMemberUniqueName="[Dim Ship To].[Ship City].[All]" allUniqueName="[Dim Ship To].[Ship City].[All]" dimensionUniqueName="[Dim Ship To]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Dim Ship To].[Ship Country]" caption="Ship Country" attribute="1" defaultMemberUniqueName="[Dim Ship To].[Ship Country].[All]" allUniqueName="[Dim Ship To].[Ship Country].[All]" dimensionUniqueName="[Dim Ship To]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Dim Ship To].[Ship Country]" caption="Ship Country" attribute="1" defaultMemberUniqueName="[Dim Ship To].[Ship Country].[All]" allUniqueName="[Dim Ship To].[Ship Country].[All]" dimensionUniqueName="[Dim Ship To]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Ship To].[Ship Country Code]" caption="Ship Country Code" attribute="1" defaultMemberUniqueName="[Dim Ship To].[Ship Country Code].[All]" allUniqueName="[Dim Ship To].[Ship Country Code].[All]" dimensionUniqueName="[Dim Ship To]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Ship To].[Ship Postal Code]" caption="Ship Postal Code" attribute="1" defaultMemberUniqueName="[Dim Ship To].[Ship Postal Code].[All]" allUniqueName="[Dim Ship To].[Ship Postal Code].[All]" dimensionUniqueName="[Dim Ship To]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Dim Ship To].[Ship Region]" caption="Ship Region" attribute="1" defaultMemberUniqueName="[Dim Ship To].[Ship Region].[All]" allUniqueName="[Dim Ship To].[Ship Region].[All]" dimensionUniqueName="[Dim Ship To]" displayFolder="" count="0" unbalanced="0"/>
@@ -1032,7 +1017,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{078F5E59-ABCE-4FB8-B4FC-E0961B425A8C}" name="PivotTable1" cacheId="47" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{078F5E59-ABCE-4FB8-B4FC-E0961B425A8C}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A5:B30" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
@@ -1162,13 +1147,13 @@
     <pageField fld="4" hier="1" name="[Dim Company Local].[Local Code].&amp;[UK]" cap="UK"/>
   </pageFields>
   <dataFields count="1">
-    <dataField fld="0" baseField="0" baseItem="0" numFmtId="165"/>
+    <dataField fld="0" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="8">
+    <format dxfId="3">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="1"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
